--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,82 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
@@ -127,48 +124,39 @@
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>wow</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
@@ -178,13 +166,13 @@
     <t>media</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
@@ -551,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5">
         <v>0.8333333333333334</v>
@@ -770,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8846153846153846</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7719298245614035</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,16 +879,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8484848484848485</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.5862068965517241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8235294117647058</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,16 +979,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.4736842105263158</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,49 +1058,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="L12">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6875</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.2777777777777778</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -1238,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.2033898305084746</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L15">
         <v>12</v>
@@ -1262,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6086956521739131</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.1875</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1308,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.1851851851851852</v>
+        <v>0.1493624772313297</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,10 +1361,10 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,31 +1376,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.1639344262295082</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M18">
         <v>10</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1408,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.1420765027322404</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L19">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>942</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,10 +1479,10 @@
         <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.1408450704225352</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -1512,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,7 +1508,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4583333333333333</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -1538,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.1157894736842105</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>84</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1558,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4468085106382979</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,170 +1576,98 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>0.07592592592592592</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>0.05873493975903615</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K22">
-        <v>0.1058823529411765</v>
-      </c>
-      <c r="L22">
-        <v>9</v>
-      </c>
-      <c r="M22">
-        <v>9</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K24">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K23">
-        <v>0.08480565371024736</v>
-      </c>
-      <c r="L23">
-        <v>24</v>
-      </c>
-      <c r="M23">
-        <v>24</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="C24">
+      <c r="K25">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L25">
         <v>12</v>
       </c>
-      <c r="D24">
+      <c r="M25">
         <v>12</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>23</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.04814814814814815</v>
-      </c>
-      <c r="L24">
-        <v>26</v>
-      </c>
-      <c r="M24">
-        <v>26</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C25">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>60</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.03765060240963856</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>25</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1762,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>639</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.03246753246753246</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1788,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.03225806451612903</v>
+        <v>0.02707373271889401</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1814,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>330</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.02857142857142857</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1840,59 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29">
-        <v>0.02707373271889401</v>
-      </c>
-      <c r="L29">
-        <v>47</v>
-      </c>
-      <c r="M29">
-        <v>47</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30">
-        <v>0.0204865556978233</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
